--- a/data/3FEB_25_26/clutch_aggregated_25_26_3FEB.xlsx
+++ b/data/3FEB_25_26/clutch_aggregated_25_26_3FEB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X134"/>
+  <dimension ref="A1:X135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>7.42</v>
+        <v>7.87</v>
       </c>
       <c r="E3" t="n">
-        <v>7.42</v>
+        <v>7.87</v>
       </c>
       <c r="F3" t="n">
-        <v>445.2</v>
+        <v>472.2</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>8.826666666666666</v>
+        <v>6.62</v>
       </c>
       <c r="W3" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="X3" t="n">
-        <v>32.88</v>
+        <v>-39.85000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1571,16 +1571,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>2.57</v>
+        <v>3.02</v>
       </c>
       <c r="E15" t="n">
-        <v>2.57</v>
+        <v>3.02</v>
       </c>
       <c r="F15" t="n">
-        <v>154.2</v>
+        <v>181.2</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -1628,13 +1628,13 @@
         <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>23.86</v>
+        <v>11.93</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>-81.48</v>
+        <v>-8.75</v>
       </c>
     </row>
     <row r="16">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>3.48</v>
+        <v>5.109999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>3.48</v>
+        <v>5.109999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>208.8</v>
+        <v>306.6</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>40.98</v>
+        <v>20.49</v>
       </c>
       <c r="W35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X35" t="n">
-        <v>21.48</v>
+        <v>69.93000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3569,28 +3569,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>8.02</v>
+        <v>10.1</v>
       </c>
       <c r="E41" t="n">
-        <v>8.02</v>
+        <v>10.1</v>
       </c>
       <c r="F41" t="n">
-        <v>481.2</v>
+        <v>606</v>
       </c>
       <c r="G41" t="n">
         <v>10</v>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I41" t="n">
         <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
@@ -3602,10 +3602,10 @@
         <v>5</v>
       </c>
       <c r="N41" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="O41" t="n">
-        <v>0.7233796296296297</v>
+        <v>0.4822530864197531</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -3626,13 +3626,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>39.77666666666666</v>
+        <v>35.085</v>
       </c>
       <c r="W41" t="n">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="X41" t="n">
-        <v>13.83</v>
+        <v>-42.14</v>
       </c>
     </row>
     <row r="42">
@@ -4640,25 +4640,25 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>F. MORENO GUTIERREZ</t>
+          <t>F. GOMEZ DE ENTERRIA LOPEZ</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ZENTRO BASKET MADRID</t>
+          <t>C.B. TRES CANTOS</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>109.2</v>
+        <v>60</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -4697,55 +4697,55 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>16.66666666666667</v>
+        <v>50</v>
       </c>
       <c r="W55" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="X55" t="n">
-        <v>-43.62</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>F. SANTAMARIA LEON</t>
+          <t>F. MORENO GUTIERREZ</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GRUPO EGIDO PINTOBASKET</t>
+          <t>ZENTRO BASKET MADRID</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>2.29</v>
+        <v>1.82</v>
       </c>
       <c r="E56" t="n">
-        <v>2.29</v>
+        <v>1.82</v>
       </c>
       <c r="F56" t="n">
-        <v>137.4</v>
+        <v>109.2</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -4760,10 +4760,10 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -4784,70 +4784,70 @@
         <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>10</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="W56" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="X56" t="n">
-        <v>134.19</v>
+        <v>-43.62</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>G. ARTILES ROMERO</t>
+          <t>F. SANTAMARIA LEON</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BALONCESTO TELDE</t>
+          <t>GRUPO EGIDO PINTOBASKET</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>6.34</v>
+        <v>2.29</v>
       </c>
       <c r="E57" t="n">
-        <v>6.34</v>
+        <v>2.29</v>
       </c>
       <c r="F57" t="n">
-        <v>380.4</v>
+        <v>137.4</v>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>0.8829787234042553</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -4862,175 +4862,175 @@
         <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>17.34333333333333</v>
+        <v>10</v>
       </c>
       <c r="W57" t="n">
-        <v>11</v>
+        <v>-5</v>
       </c>
       <c r="X57" t="n">
-        <v>73.06</v>
+        <v>134.19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>G. DIAZ MONTERO</t>
+          <t>G. ARTILES ROMERO</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>C.B. TRES CANTOS</t>
+          <t>BALONCESTO TELDE</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>11.25</v>
+        <v>6.34</v>
       </c>
       <c r="E58" t="n">
-        <v>11.25</v>
+        <v>6.34</v>
       </c>
       <c r="F58" t="n">
-        <v>675</v>
+        <v>380.4</v>
       </c>
       <c r="G58" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="O58" t="n">
-        <v>0.2777777777777777</v>
+        <v>0.8829787234042553</v>
       </c>
       <c r="P58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
       </c>
       <c r="R58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>34.41666666666666</v>
+        <v>17.34333333333333</v>
       </c>
       <c r="W58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X58" t="n">
-        <v>50.45999999999999</v>
+        <v>73.06</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>G. FATA ALCARAZ</t>
+          <t>G. DIAZ MONTERO</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ZENTRO BASKET MADRID</t>
+          <t>C.B. TRES CANTOS</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>1.37</v>
+        <v>13.33</v>
       </c>
       <c r="E59" t="n">
-        <v>1.37</v>
+        <v>13.33</v>
       </c>
       <c r="F59" t="n">
-        <v>82.2</v>
+        <v>799.8</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U59" t="n">
         <v>1</v>
       </c>
       <c r="V59" t="n">
-        <v>25.77</v>
+        <v>40.8125</v>
       </c>
       <c r="W59" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="X59" t="n">
-        <v>42.6</v>
+        <v>106.43</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>G. GOMA</t>
+          <t>G. FATA ALCARAZ</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -5039,25 +5039,25 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>11.46</v>
+        <v>1.37</v>
       </c>
       <c r="E60" t="n">
-        <v>11.46</v>
+        <v>1.37</v>
       </c>
       <c r="F60" t="n">
-        <v>687.6</v>
+        <v>82.2</v>
       </c>
       <c r="G60" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -5066,16 +5066,16 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>0.5915135396518376</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -5087,55 +5087,55 @@
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T60" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V60" t="n">
-        <v>31.3775</v>
+        <v>25.77</v>
       </c>
       <c r="W60" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="X60" t="n">
-        <v>256.25</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>G. HIERRO ABAD</t>
+          <t>G. GOMA</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>RECUCYM BAZU</t>
+          <t>ZENTRO BASKET MADRID</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>6.64</v>
+        <v>11.46</v>
       </c>
       <c r="E61" t="n">
-        <v>6.64</v>
+        <v>11.46</v>
       </c>
       <c r="F61" t="n">
-        <v>398.4</v>
+        <v>687.6</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -5144,14 +5144,16 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.75</v>
+      </c>
       <c r="O61" t="n">
-        <v>0.5681818181818182</v>
+        <v>0.5915135396518376</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -5163,55 +5165,55 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V61" t="n">
-        <v>2.3</v>
+        <v>31.3775</v>
       </c>
       <c r="W61" t="n">
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="X61" t="n">
-        <v>-68.76000000000001</v>
+        <v>256.25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>G. LARDIES GUILLEN</t>
+          <t>G. HIERRO ABAD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>C.B. TRES CANTOS</t>
+          <t>RECUCYM BAZU</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>4.119999999999999</v>
+        <v>6.64</v>
       </c>
       <c r="E62" t="n">
-        <v>4.119999999999999</v>
+        <v>6.64</v>
       </c>
       <c r="F62" t="n">
-        <v>247.2</v>
+        <v>398.4</v>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -5225,11 +5227,9 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
-      <c r="N62" t="n">
-        <v>0.6666666666666666</v>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="n">
-        <v>0.6443298969072165</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -5244,55 +5244,55 @@
         <v>1</v>
       </c>
       <c r="T62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62" t="n">
-        <v>27.875</v>
+        <v>2.3</v>
       </c>
       <c r="W62" t="n">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="X62" t="n">
-        <v>97.95</v>
+        <v>-68.76000000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>G. MARTIN LOPEZ-LAGO</t>
+          <t>G. LARDIES GUILLEN</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>UROS DE RIVAS</t>
+          <t>C.B. TRES CANTOS</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>7.08</v>
+        <v>4.119999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>7.08</v>
+        <v>4.119999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>424.8</v>
+        <v>247.2</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
         <v>3</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -5304,141 +5304,145 @@
         <v>1</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O63" t="n">
-        <v>0.1329787234042553</v>
+        <v>0.6443298969072165</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T63" t="n">
         <v>1</v>
       </c>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
-        <v>34.38</v>
+        <v>27.875</v>
       </c>
       <c r="W63" t="n">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="X63" t="n">
-        <v>-76.89</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>G. TCHIRAKADZE</t>
+          <t>G. MARTIN LOPEZ-LAGO</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ZENTRO BASKET MADRID</t>
+          <t>UROS DE RIVAS</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>6.19</v>
+        <v>7.08</v>
       </c>
       <c r="E64" t="n">
-        <v>6.19</v>
+        <v>7.08</v>
       </c>
       <c r="F64" t="n">
-        <v>371.4</v>
+        <v>424.8</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.1329787234042553</v>
+      </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>34.38</v>
       </c>
       <c r="W64" t="n">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="X64" t="n">
-        <v>179.67</v>
+        <v>-76.89</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>H. PEREZ SANCHEZ</t>
+          <t>G. TCHIRAKADZE</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>C.B. TRES CANTOS</t>
+          <t>ZENTRO BASKET MADRID</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>4.68</v>
+        <v>6.19</v>
       </c>
       <c r="E65" t="n">
-        <v>4.68</v>
+        <v>6.19</v>
       </c>
       <c r="F65" t="n">
-        <v>280.8</v>
+        <v>371.4</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5455,12 +5459,8 @@
       <c r="M65" t="n">
         <v>0</v>
       </c>
-      <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0</v>
-      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
         <v>0</v>
       </c>
@@ -5480,37 +5480,37 @@
         <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>8.505000000000001</v>
+        <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X65" t="n">
-        <v>37.61</v>
+        <v>179.67</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>H. SANTANA DE LA ROSA</t>
+          <t>H. PEREZ SANCHEZ</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ADC BOADILLA</t>
+          <t>C.B. TRES CANTOS</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>1.29</v>
+        <v>4.68</v>
       </c>
       <c r="E66" t="n">
-        <v>1.29</v>
+        <v>4.68</v>
       </c>
       <c r="F66" t="n">
-        <v>77.40000000000001</v>
+        <v>280.8</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -5558,19 +5558,19 @@
         <v>0</v>
       </c>
       <c r="V66" t="n">
-        <v>100</v>
+        <v>8.505000000000001</v>
       </c>
       <c r="W66" t="n">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="X66" t="n">
-        <v>-333.33</v>
+        <v>37.61</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>I. BLANCO-ARGIBAY GONZALEZ</t>
+          <t>H. SANTANA DE LA ROSA</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5582,97 +5582,97 @@
         <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>12.34</v>
+        <v>1.29</v>
       </c>
       <c r="E67" t="n">
-        <v>12.34</v>
+        <v>1.29</v>
       </c>
       <c r="F67" t="n">
-        <v>740.4000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>0.06443298969072166</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>16.05</v>
+        <v>100</v>
       </c>
       <c r="W67" t="n">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="X67" t="n">
-        <v>-131.27</v>
+        <v>-333.33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>I. MENCARA JIMENEZ</t>
+          <t>I. BLANCO-ARGIBAY GONZALEZ</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BALONCESTO TELDE</t>
+          <t>ADC BOADILLA</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9500000000000001</v>
+        <v>12.34</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9500000000000001</v>
+        <v>12.34</v>
       </c>
       <c r="F68" t="n">
-        <v>57</v>
+        <v>740.4000000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5687,76 +5687,76 @@
         <v>2</v>
       </c>
       <c r="M68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>0.5319148936170213</v>
+        <v>0.06443298969072166</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V68" t="n">
-        <v>50</v>
+        <v>16.05</v>
       </c>
       <c r="W68" t="n">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="X68" t="n">
-        <v>106.38</v>
+        <v>-131.27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>I. REBERGEN</t>
+          <t>I. MENCARA JIMENEZ</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+          <t>BALONCESTO TELDE</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>7.07</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>7.07</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>424.2</v>
+        <v>57</v>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -5768,10 +5768,10 @@
         <v>2</v>
       </c>
       <c r="N69" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>0.818181818181818</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -5783,49 +5783,49 @@
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>15.92</v>
+        <v>50</v>
       </c>
       <c r="W69" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="X69" t="n">
-        <v>-88.04000000000001</v>
+        <v>106.38</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>J. ABRIL RAMIRO</t>
+          <t>I. REBERGEN</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CB ARIDANE</t>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>6.220000000000001</v>
+        <v>7.07</v>
       </c>
       <c r="E70" t="n">
-        <v>6.220000000000001</v>
+        <v>7.07</v>
       </c>
       <c r="F70" t="n">
-        <v>373.2</v>
+        <v>424.2</v>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70" t="n">
         <v>2</v>
@@ -5840,101 +5840,103 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70" t="n">
         <v>0.5</v>
       </c>
       <c r="O70" t="n">
-        <v>0.398936170212766</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="P70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" t="n">
         <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V70" t="n">
-        <v>24.605</v>
+        <v>15.92</v>
       </c>
       <c r="W70" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="X70" t="n">
-        <v>-115.4</v>
+        <v>-88.04000000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>J. ATIENZA PEREA</t>
+          <t>J. ABRIL RAMIRO</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>C.B. TRES CANTOS</t>
+          <t>CB ARIDANE</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>6.869999999999999</v>
+        <v>6.220000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>6.869999999999999</v>
+        <v>6.220000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>412.2</v>
+        <v>373.2</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>2</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.5</v>
+      </c>
       <c r="O71" t="n">
-        <v>1.136363636363636</v>
+        <v>0.398936170212766</v>
       </c>
       <c r="P71" t="n">
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
@@ -5946,49 +5948,49 @@
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>21.09333333333333</v>
+        <v>24.605</v>
       </c>
       <c r="W71" t="n">
-        <v>9</v>
+        <v>-6</v>
       </c>
       <c r="X71" t="n">
-        <v>107.05</v>
+        <v>-115.4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>J. AYALA AYLLÓN</t>
+          <t>J. ATIENZA PEREA</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>GRUPO EGIDO PINTOBASKET</t>
+          <t>C.B. TRES CANTOS</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>4.9</v>
+        <v>7.95</v>
       </c>
       <c r="E72" t="n">
-        <v>4.9</v>
+        <v>7.95</v>
       </c>
       <c r="F72" t="n">
-        <v>294</v>
+        <v>477</v>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -5997,73 +5999,73 @@
         <v>2</v>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N72" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>0.5208333333333334</v>
+        <v>1.068181818181818</v>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" t="n">
         <v>1</v>
       </c>
       <c r="S72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
       </c>
       <c r="V72" t="n">
-        <v>33.33</v>
+        <v>24.1525</v>
       </c>
       <c r="W72" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="X72" t="n">
-        <v>46.3</v>
+        <v>287.19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>J. BARRA DE LA CRUZ</t>
+          <t>J. AYALA AYLLÓN</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>RECUCYM BAZU</t>
+          <t>GRUPO EGIDO PINTOBASKET</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>3.89</v>
+        <v>4.9</v>
       </c>
       <c r="E73" t="n">
-        <v>3.89</v>
+        <v>4.9</v>
       </c>
       <c r="F73" t="n">
-        <v>233.4</v>
+        <v>294</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -6072,82 +6074,82 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V73" t="n">
-        <v>23.705</v>
+        <v>33.33</v>
       </c>
       <c r="W73" t="n">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="X73" t="n">
-        <v>-154.8</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>J. DOMINGUEZ LARRE</t>
+          <t>J. BARRA DE LA CRUZ</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>C.B. TRES CANTOS</t>
+          <t>RECUCYM BAZU</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6.84</v>
+        <v>3.89</v>
       </c>
       <c r="E74" t="n">
-        <v>6.84</v>
+        <v>3.89</v>
       </c>
       <c r="F74" t="n">
-        <v>410.4</v>
+        <v>233.4</v>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -6156,10 +6158,10 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -6171,73 +6173,73 @@
         <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74" t="n">
         <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V74" t="n">
-        <v>20.75333333333333</v>
+        <v>23.705</v>
       </c>
       <c r="W74" t="n">
-        <v>6</v>
+        <v>-10</v>
       </c>
       <c r="X74" t="n">
-        <v>80.41000000000003</v>
+        <v>-154.8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>J. GALLETTO LAMELA</t>
+          <t>J. DOMINGUEZ LARRE</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>EB FELIPE ANTÓN</t>
+          <t>C.B. TRES CANTOS</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>8.67</v>
+        <v>8.92</v>
       </c>
       <c r="E75" t="n">
-        <v>8.67</v>
+        <v>8.92</v>
       </c>
       <c r="F75" t="n">
-        <v>520.2</v>
+        <v>535.1999999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H75" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L75" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>0.8435235507246377</v>
+        <v>1</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -6258,64 +6260,64 @@
         <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>60</v>
+        <v>20.565</v>
       </c>
       <c r="W75" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X75" t="n">
-        <v>52.35</v>
+        <v>136.38</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>J. GARCIA-LARRACHE SEGURA</t>
+          <t>J. GALLETTO LAMELA</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>REAL CANOE N.C.</t>
+          <t>EB FELIPE ANTÓN</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>9.07</v>
+        <v>8.67</v>
       </c>
       <c r="E76" t="n">
-        <v>9.07</v>
+        <v>8.67</v>
       </c>
       <c r="F76" t="n">
-        <v>544.2</v>
+        <v>520.2</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O76" t="n">
-        <v>0.1329787234042553</v>
+        <v>0.8435235507246377</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -6327,300 +6329,300 @@
         <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V76" t="n">
-        <v>34.985</v>
+        <v>60</v>
       </c>
       <c r="W76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X76" t="n">
-        <v>128.77</v>
+        <v>52.35</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>J. JIMENEZ HERNANDEZ</t>
+          <t>J. GARCIA-LARRACHE SEGURA</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BALONCESTO TELDE</t>
+          <t>REAL CANOE N.C.</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>0.92</v>
+        <v>9.07</v>
       </c>
       <c r="E77" t="n">
-        <v>0.92</v>
+        <v>9.07</v>
       </c>
       <c r="F77" t="n">
-        <v>55.2</v>
+        <v>544.2</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.1329787234042553</v>
+      </c>
       <c r="P77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>34.985</v>
       </c>
       <c r="W77" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X77" t="n">
-        <v>106.38</v>
+        <v>128.77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>J. LAPASTORA ARACIL</t>
+          <t>J. JIMENEZ HERNANDEZ</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REAL CANOE N.C.</t>
+          <t>BALONCESTO TELDE</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>15.14</v>
+        <v>0.92</v>
       </c>
       <c r="E78" t="n">
-        <v>15.14</v>
+        <v>0.92</v>
       </c>
       <c r="F78" t="n">
-        <v>908.4</v>
+        <v>55.2</v>
       </c>
       <c r="G78" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>3</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.4041705716963449</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U78" t="n">
         <v>0</v>
       </c>
       <c r="V78" t="n">
-        <v>20.42666666666667</v>
+        <v>0</v>
       </c>
       <c r="W78" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="X78" t="n">
-        <v>194.41</v>
+        <v>106.38</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>J. LOBATO ANDRADE</t>
+          <t>J. LAPASTORA ARACIL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ADC BOADILLA</t>
+          <t>REAL CANOE N.C.</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>5.46</v>
+        <v>15.14</v>
       </c>
       <c r="E79" t="n">
-        <v>5.46</v>
+        <v>15.14</v>
       </c>
       <c r="F79" t="n">
-        <v>327.6</v>
+        <v>908.4</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.4041705716963449</v>
+      </c>
       <c r="P79" t="n">
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>4.066666666666666</v>
+        <v>20.42666666666667</v>
       </c>
       <c r="W79" t="n">
-        <v>-15</v>
+        <v>12</v>
       </c>
       <c r="X79" t="n">
-        <v>-444.88</v>
+        <v>194.41</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>J. MENDOZA ALVAREZ</t>
+          <t>J. LOBATO ANDRADE</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RECUCYM BAZU</t>
+          <t>ADC BOADILLA</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>2.67</v>
+        <v>5.46</v>
       </c>
       <c r="E80" t="n">
-        <v>2.67</v>
+        <v>5.46</v>
       </c>
       <c r="F80" t="n">
-        <v>160.2</v>
+        <v>327.6</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.2659574468085106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
         <v>0</v>
       </c>
@@ -6634,25 +6636,25 @@
         <v>2</v>
       </c>
       <c r="T80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V80" t="n">
-        <v>42.6</v>
+        <v>4.066666666666666</v>
       </c>
       <c r="W80" t="n">
-        <v>-6</v>
+        <v>-15</v>
       </c>
       <c r="X80" t="n">
-        <v>-156.78</v>
+        <v>-444.88</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>J. MUNRO</t>
+          <t>J. MENDOZA ALVAREZ</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6661,16 +6663,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>6.67</v>
+        <v>2.67</v>
       </c>
       <c r="E81" t="n">
-        <v>6.67</v>
+        <v>2.67</v>
       </c>
       <c r="F81" t="n">
-        <v>400.2</v>
+        <v>160.2</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -6697,82 +6699,86 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>0.2840909090909091</v>
+        <v>0.2659574468085106</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V81" t="n">
-        <v>18.915</v>
+        <v>42.6</v>
       </c>
       <c r="W81" t="n">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="X81" t="n">
-        <v>-177.05</v>
+        <v>-156.78</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>J. OLIVA SANCHEZ</t>
+          <t>J. MUNRO</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>REAL CANOE N.C.</t>
+          <t>RECUCYM BAZU</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>0.48</v>
+        <v>6.67</v>
       </c>
       <c r="E82" t="n">
-        <v>0.48</v>
+        <v>6.67</v>
       </c>
       <c r="F82" t="n">
-        <v>28.8</v>
+        <v>400.2</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.2840909090909091</v>
+      </c>
       <c r="P82" t="n">
         <v>0</v>
       </c>
@@ -6791,36 +6797,38 @@
       <c r="U82" t="n">
         <v>0</v>
       </c>
-      <c r="V82" t="inlineStr"/>
+      <c r="V82" t="n">
+        <v>18.915</v>
+      </c>
       <c r="W82" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="X82" t="n">
-        <v>0</v>
+        <v>-177.05</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>J. PRATS PEINADO</t>
+          <t>J. OLIVA SANCHEZ</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RECUCYM BAZU</t>
+          <t>REAL CANOE N.C.</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>1.68</v>
+        <v>0.48</v>
       </c>
       <c r="E83" t="n">
-        <v>1.68</v>
+        <v>0.48</v>
       </c>
       <c r="F83" t="n">
-        <v>100.8</v>
+        <v>28.8</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -6863,38 +6871,36 @@
       <c r="U83" t="n">
         <v>0</v>
       </c>
-      <c r="V83" t="n">
-        <v>0</v>
-      </c>
+      <c r="V83" t="inlineStr"/>
       <c r="W83" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="X83" t="n">
-        <v>-73.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>J. RIES</t>
+          <t>J. PRATS PEINADO</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+          <t>RECUCYM BAZU</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0.23</v>
+        <v>1.68</v>
       </c>
       <c r="E84" t="n">
-        <v>0.23</v>
+        <v>1.68</v>
       </c>
       <c r="F84" t="n">
-        <v>13.8</v>
+        <v>100.8</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -6937,36 +6943,38 @@
       <c r="U84" t="n">
         <v>0</v>
       </c>
-      <c r="V84" t="inlineStr"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
       <c r="W84" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="X84" t="n">
-        <v>0</v>
+        <v>-73.06</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>J. SAEZ BENITO</t>
+          <t>J. RIES</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GRUPO EGIDO PINTOBASKET</t>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="E85" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="F85" t="n">
-        <v>13.8</v>
+        <v>138.6</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -6995,160 +7003,156 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T85" t="n">
         <v>0</v>
       </c>
       <c r="U85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V85" t="n">
-        <v>0</v>
+        <v>21.01</v>
       </c>
       <c r="W85" t="n">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="X85" t="n">
-        <v>300</v>
+        <v>-55.97</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>J. VAQUERO PASCUAL</t>
+          <t>J. SAEZ BENITO</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ZENTRO BASKET MADRID</t>
+          <t>GRUPO EGIDO PINTOBASKET</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>6.03</v>
+        <v>0.23</v>
       </c>
       <c r="E86" t="n">
-        <v>6.03</v>
+        <v>0.23</v>
       </c>
       <c r="F86" t="n">
-        <v>361.8</v>
+        <v>13.8</v>
       </c>
       <c r="G86" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>4</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0.4920634920634921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
       <c r="P86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86" t="n">
         <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V86" t="n">
-        <v>72.56999999999999</v>
+        <v>0</v>
       </c>
       <c r="W86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X86" t="n">
-        <v>269.1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>K. RIVEROL DE LAS CASAS</t>
+          <t>J. VAQUERO PASCUAL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>EB FELIPE ANTÓN</t>
+          <t>ZENTRO BASKET MADRID</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>13</v>
+        <v>6.03</v>
       </c>
       <c r="E87" t="n">
-        <v>13</v>
+        <v>6.03</v>
       </c>
       <c r="F87" t="n">
-        <v>780</v>
+        <v>361.8</v>
       </c>
       <c r="G87" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H87" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
         <v>3</v>
       </c>
       <c r="K87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O87" t="n">
-        <v>0.9052579365079365</v>
+        <v>0.4920634920634921</v>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
@@ -7157,82 +7161,82 @@
         <v>1</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V87" t="n">
-        <v>22.81666666666666</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="W87" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="X87" t="n">
-        <v>-82.06999999999999</v>
+        <v>269.1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>K. SKUTYELNIK</t>
+          <t>K. RIVEROL DE LAS CASAS</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CB ARIDANE</t>
+          <t>EB FELIPE ANTÓN</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>8.190000000000001</v>
+        <v>13</v>
       </c>
       <c r="E88" t="n">
-        <v>8.190000000000001</v>
+        <v>13</v>
       </c>
       <c r="F88" t="n">
-        <v>491.4</v>
+        <v>780</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N88" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>0.25</v>
+        <v>0.9052579365079365</v>
       </c>
       <c r="P88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S88" t="n">
         <v>0</v>
@@ -7244,49 +7248,49 @@
         <v>0</v>
       </c>
       <c r="V88" t="n">
-        <v>37.47</v>
+        <v>22.81666666666666</v>
       </c>
       <c r="W88" t="n">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="X88" t="n">
-        <v>-14.08000000000001</v>
+        <v>-82.06999999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>L. BERMEJO ALCALDE</t>
+          <t>K. SKUTYELNIK</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GRUPO EGIDO PINTOBASKET</t>
+          <t>CB ARIDANE</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>1.83</v>
+        <v>8.190000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>1.83</v>
+        <v>8.190000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>109.8</v>
+        <v>491.4</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -7298,16 +7302,16 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -7322,46 +7326,46 @@
         <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>16.665</v>
+        <v>37.47</v>
       </c>
       <c r="W89" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="X89" t="n">
-        <v>56.82000000000002</v>
+        <v>-14.08000000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>L. DE LA CRUZ DE LA ROSA</t>
+          <t>L. BERMEJO ALCALDE</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>RECUCYM BAZU</t>
+          <t>GRUPO EGIDO PINTOBASKET</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>8.19</v>
+        <v>1.83</v>
       </c>
       <c r="E90" t="n">
-        <v>8.19</v>
+        <v>1.83</v>
       </c>
       <c r="F90" t="n">
-        <v>491.4</v>
+        <v>109.8</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -7376,64 +7380,64 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V90" t="n">
-        <v>24.54666666666667</v>
+        <v>16.665</v>
       </c>
       <c r="W90" t="n">
-        <v>-13</v>
+        <v>-1</v>
       </c>
       <c r="X90" t="n">
-        <v>-115.68</v>
+        <v>56.82000000000002</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>L. GARCIA LARRACHE SEGURA</t>
+          <t>L. DE LA CRUZ DE LA ROSA</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>REAL CANOE N.C.</t>
+          <t>RECUCYM BAZU</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>7.220000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="E91" t="n">
-        <v>7.220000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="F91" t="n">
-        <v>433.2</v>
+        <v>491.4</v>
       </c>
       <c r="G91" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>2</v>
@@ -7442,238 +7446,238 @@
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
         <v>0.5</v>
       </c>
       <c r="O91" t="n">
-        <v>0.7543103448275861</v>
+        <v>0.5</v>
       </c>
       <c r="P91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91" t="n">
         <v>1</v>
       </c>
       <c r="S91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T91" t="n">
         <v>1</v>
       </c>
       <c r="U91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V91" t="n">
-        <v>36.25</v>
+        <v>24.54666666666667</v>
       </c>
       <c r="W91" t="n">
-        <v>9</v>
+        <v>-13</v>
       </c>
       <c r="X91" t="n">
-        <v>187.58</v>
+        <v>-115.68</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>L. GIFREU LLARCH</t>
+          <t>L. GARCIA LARRACHE SEGURA</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>EB FELIPE ANTÓN</t>
+          <t>REAL CANOE N.C.</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>23.48</v>
+        <v>7.220000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>23.48</v>
+        <v>7.220000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>1408.8</v>
+        <v>433.2</v>
       </c>
       <c r="G92" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>6</v>
+      </c>
+      <c r="M92" t="n">
         <v>5</v>
       </c>
-      <c r="I92" t="n">
-        <v>2</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2</v>
-      </c>
-      <c r="K92" t="n">
-        <v>1</v>
-      </c>
-      <c r="L92" t="n">
-        <v>10</v>
-      </c>
-      <c r="M92" t="n">
-        <v>6</v>
-      </c>
       <c r="N92" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="O92" t="n">
-        <v>0.6428950408338705</v>
+        <v>0.7543103448275861</v>
       </c>
       <c r="P92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S92" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V92" t="n">
-        <v>28.3025</v>
+        <v>36.25</v>
       </c>
       <c r="W92" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X92" t="n">
-        <v>71.81999999999999</v>
+        <v>187.58</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>L. RODRIGUEZ SANCHEZ</t>
+          <t>L. GIFREU LLARCH</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>AUTOCARES RODRÍGUEZ</t>
+          <t>EB FELIPE ANTÓN</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>4.48</v>
+        <v>23.48</v>
       </c>
       <c r="E93" t="n">
-        <v>4.48</v>
+        <v>23.48</v>
       </c>
       <c r="F93" t="n">
-        <v>268.8</v>
+        <v>1408.8</v>
       </c>
       <c r="G93" t="n">
+        <v>11</v>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>10</v>
+      </c>
+      <c r="M93" t="n">
         <v>6</v>
       </c>
-      <c r="H93" t="n">
-        <v>4</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3</v>
-      </c>
-      <c r="M93" t="n">
-        <v>2</v>
-      </c>
       <c r="N93" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O93" t="n">
-        <v>0.5639097744360902</v>
+        <v>0.6428950408338705</v>
       </c>
       <c r="P93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S93" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V93" t="n">
-        <v>63.94</v>
+        <v>28.3025</v>
       </c>
       <c r="W93" t="n">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="X93" t="n">
-        <v>-67.17</v>
+        <v>71.81999999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>L. SCHIEBELHUT LUIS</t>
+          <t>L. RODRIGUEZ SANCHEZ</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ZENTRO BASKET MADRID</t>
+          <t>AUTOCARES RODRÍGUEZ</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>7</v>
+        <v>4.48</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>4.48</v>
       </c>
       <c r="F94" t="n">
-        <v>420</v>
+        <v>268.8</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -7682,76 +7686,76 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>0.5639097744360902</v>
       </c>
       <c r="P94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U94" t="n">
         <v>0</v>
       </c>
       <c r="V94" t="n">
-        <v>12.20333333333333</v>
+        <v>63.94</v>
       </c>
       <c r="W94" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="X94" t="n">
-        <v>375.4</v>
+        <v>-67.17</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>L. VALERA VILLEGAS</t>
+          <t>L. SCHIEBELHUT LUIS</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>LUJISA GUADALAJARA BASKET</t>
+          <t>ZENTRO BASKET MADRID</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>14.59</v>
+        <v>7</v>
       </c>
       <c r="E95" t="n">
-        <v>14.59</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>875.4</v>
+        <v>420</v>
       </c>
       <c r="G95" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -7760,16 +7764,16 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>0.8220502901353964</v>
+        <v>0</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -7778,109 +7782,109 @@
         <v>1</v>
       </c>
       <c r="R95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V95" t="n">
-        <v>24.6025</v>
+        <v>12.20333333333333</v>
       </c>
       <c r="W95" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="X95" t="n">
-        <v>84.67</v>
+        <v>375.4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>M. ALARCON ORTIZ</t>
+          <t>L. VALERA VILLEGAS</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GRUPO EGIDO PINTOBASKET</t>
+          <t>LUJISA GUADALAJARA BASKET</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>14.35</v>
+        <v>14.59</v>
       </c>
       <c r="E96" t="n">
-        <v>14.35</v>
+        <v>14.59</v>
       </c>
       <c r="F96" t="n">
-        <v>861</v>
+        <v>875.4</v>
       </c>
       <c r="G96" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H96" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M96" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N96" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="O96" t="n">
-        <v>0.6389647844565878</v>
+        <v>0.8220502901353964</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96" t="n">
         <v>1</v>
       </c>
       <c r="S96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V96" t="n">
-        <v>26.58333333333333</v>
+        <v>24.6025</v>
       </c>
       <c r="W96" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="X96" t="n">
-        <v>34.33999999999999</v>
+        <v>84.67</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>M. BATLLE BERNARDO</t>
+          <t>M. ALARCON ORTIZ</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7892,43 +7896,43 @@
         <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>7.34</v>
+        <v>14.35</v>
       </c>
       <c r="E97" t="n">
-        <v>7.34</v>
+        <v>14.35</v>
       </c>
       <c r="F97" t="n">
-        <v>440.4</v>
+        <v>861</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="O97" t="n">
-        <v>0.2659574468085106</v>
+        <v>0.6389647844565878</v>
       </c>
       <c r="P97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97" t="n">
         <v>0</v>
@@ -7937,28 +7941,28 @@
         <v>1</v>
       </c>
       <c r="S97" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V97" t="n">
-        <v>10.88</v>
+        <v>26.58333333333333</v>
       </c>
       <c r="W97" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X97" t="n">
-        <v>-6.399999999999999</v>
+        <v>34.33999999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>M. DEL VALLE REGALADO</t>
+          <t>M. BATLLE BERNARDO</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7970,22 +7974,22 @@
         <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>7.250000000000001</v>
+        <v>7.34</v>
       </c>
       <c r="E98" t="n">
-        <v>7.250000000000001</v>
+        <v>7.34</v>
       </c>
       <c r="F98" t="n">
-        <v>435</v>
+        <v>440.4</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -7994,154 +7998,154 @@
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>0.25</v>
+        <v>0.2659574468085106</v>
       </c>
       <c r="P98" t="n">
         <v>1</v>
       </c>
       <c r="Q98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T98" t="n">
         <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V98" t="n">
-        <v>30.875</v>
+        <v>10.88</v>
       </c>
       <c r="W98" t="n">
         <v>-1</v>
       </c>
       <c r="X98" t="n">
-        <v>5.530000000000001</v>
+        <v>-6.399999999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>M. DIALLO</t>
+          <t>M. DEL VALLE REGALADO</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>LUJISA GUADALAJARA BASKET</t>
+          <t>GRUPO EGIDO PINTOBASKET</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>9.82</v>
+        <v>7.250000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>9.82</v>
+        <v>7.250000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>589.2</v>
+        <v>435</v>
       </c>
       <c r="G99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
         <v>3</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="O99" t="n">
-        <v>0.5648148148148148</v>
+        <v>0.25</v>
       </c>
       <c r="P99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
       </c>
       <c r="R99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V99" t="n">
-        <v>57.3675</v>
+        <v>30.875</v>
       </c>
       <c r="W99" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="X99" t="n">
-        <v>87.04000000000001</v>
+        <v>5.530000000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>M. ECHEVERRIA FERNANDEZ</t>
+          <t>M. DIALLO</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>RECUCYM BAZU</t>
+          <t>LUJISA GUADALAJARA BASKET</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>8.359999999999999</v>
+        <v>9.82</v>
       </c>
       <c r="E100" t="n">
-        <v>8.359999999999999</v>
+        <v>9.82</v>
       </c>
       <c r="F100" t="n">
-        <v>501.6</v>
+        <v>589.2</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -8150,17 +8154,19 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="O100" t="n">
-        <v>0.2840909090909091</v>
+        <v>0.5648148148148148</v>
       </c>
       <c r="P100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -8169,226 +8175,228 @@
         <v>1</v>
       </c>
       <c r="S100" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V100" t="n">
-        <v>10.25333333333333</v>
+        <v>57.3675</v>
       </c>
       <c r="W100" t="n">
-        <v>-10</v>
+        <v>11</v>
       </c>
       <c r="X100" t="n">
-        <v>-179.85</v>
+        <v>87.04000000000001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>M. ESTAPE ROIZ</t>
+          <t>M. ECHEVERRIA FERNANDEZ</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ZENTRO BASKET MADRID</t>
+          <t>RECUCYM BAZU</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>10.79</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>10.79</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>647.4000000000001</v>
+        <v>501.6</v>
       </c>
       <c r="G101" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
         <v>4</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>2</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>5</v>
-      </c>
       <c r="M101" t="n">
-        <v>3</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0.1666666666666667</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
       <c r="O101" t="n">
-        <v>0.3654905794525418</v>
+        <v>0.2840909090909091</v>
       </c>
       <c r="P101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R101" t="n">
         <v>1</v>
       </c>
       <c r="S101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V101" t="n">
-        <v>27.24</v>
+        <v>10.25333333333333</v>
       </c>
       <c r="W101" t="n">
-        <v>8</v>
+        <v>-10</v>
       </c>
       <c r="X101" t="n">
-        <v>191.26</v>
+        <v>-179.85</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>M. HERMOSO ALCUBILLA</t>
+          <t>M. ESTAPE ROIZ</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>REAL CANOE N.C.</t>
+          <t>ZENTRO BASKET MADRID</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>3</v>
       </c>
       <c r="D102" t="n">
-        <v>11.81</v>
+        <v>10.79</v>
       </c>
       <c r="E102" t="n">
-        <v>11.81</v>
+        <v>10.79</v>
       </c>
       <c r="F102" t="n">
-        <v>708.5999999999999</v>
+        <v>647.4000000000001</v>
       </c>
       <c r="G102" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
       </c>
       <c r="L102" t="n">
+        <v>5</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.3654905794525418</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0</v>
+      </c>
+      <c r="V102" t="n">
+        <v>27.24</v>
+      </c>
+      <c r="W102" t="n">
         <v>8</v>
       </c>
-      <c r="M102" t="n">
-        <v>5</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0.6073667711598746</v>
-      </c>
-      <c r="P102" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>1</v>
-      </c>
-      <c r="R102" t="n">
-        <v>0</v>
-      </c>
-      <c r="S102" t="n">
-        <v>5</v>
-      </c>
-      <c r="T102" t="n">
-        <v>2</v>
-      </c>
-      <c r="U102" t="n">
-        <v>3</v>
-      </c>
-      <c r="V102" t="n">
-        <v>22.45</v>
-      </c>
-      <c r="W102" t="n">
-        <v>5</v>
-      </c>
       <c r="X102" t="n">
-        <v>45.23999999999999</v>
+        <v>191.26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>M. KHIVRENKO</t>
+          <t>M. HERMOSO ALCUBILLA</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>EB FELIPE ANTÓN</t>
+          <t>REAL CANOE N.C.</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103" t="n">
-        <v>2.52</v>
+        <v>11.81</v>
       </c>
       <c r="E103" t="n">
-        <v>2.52</v>
+        <v>11.81</v>
       </c>
       <c r="F103" t="n">
-        <v>151.2</v>
+        <v>708.5999999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.6073667711598746</v>
+      </c>
       <c r="P103" t="n">
         <v>0</v>
       </c>
@@ -8399,205 +8407,207 @@
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V103" t="n">
-        <v>8.335000000000001</v>
+        <v>22.45</v>
       </c>
       <c r="W103" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="X103" t="n">
-        <v>-210.19</v>
+        <v>45.23999999999999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>M. KREISLER LORENTE</t>
+          <t>M. KHIVRENKO</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>REAL CANOE N.C.</t>
+          <t>EB FELIPE ANTÓN</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104" t="n">
-        <v>14.69</v>
+        <v>2.52</v>
       </c>
       <c r="E104" t="n">
-        <v>14.69</v>
+        <v>2.52</v>
       </c>
       <c r="F104" t="n">
-        <v>881.4</v>
+        <v>151.2</v>
       </c>
       <c r="G104" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>4</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="O104" t="n">
-        <v>0.5270278324095595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
       <c r="P104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
       </c>
       <c r="R104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V104" t="n">
-        <v>42.12333333333333</v>
+        <v>8.335000000000001</v>
       </c>
       <c r="W104" t="n">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="X104" t="n">
-        <v>187.08</v>
+        <v>-210.19</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>M. MANGUE NVOMO</t>
+          <t>M. KREISLER LORENTE</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RECUCYM BAZU</t>
+          <t>REAL CANOE N.C.</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3</v>
+        <v>14.69</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3</v>
+        <v>14.69</v>
       </c>
       <c r="F105" t="n">
-        <v>18</v>
+        <v>881.4</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.5270278324095595</v>
+      </c>
       <c r="P105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U105" t="n">
-        <v>0</v>
-      </c>
-      <c r="V105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="V105" t="n">
+        <v>42.12333333333333</v>
+      </c>
       <c r="W105" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X105" t="n">
-        <v>0</v>
+        <v>187.08</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>M. NIANG</t>
+          <t>M. MANGUE NVOMO</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+          <t>RECUCYM BAZU</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>6.75</v>
+        <v>0.3</v>
       </c>
       <c r="E106" t="n">
-        <v>6.75</v>
+        <v>0.3</v>
       </c>
       <c r="F106" t="n">
-        <v>405</v>
+        <v>18</v>
       </c>
       <c r="G106" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -8606,76 +8616,70 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O106" t="n">
-        <v>0.6534672970843184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
       <c r="P106" t="n">
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T106" t="n">
         <v>0</v>
       </c>
       <c r="U106" t="n">
-        <v>2</v>
-      </c>
-      <c r="V106" t="n">
-        <v>60.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V106" t="inlineStr"/>
       <c r="W106" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="X106" t="n">
-        <v>25.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>M. NIMAGA</t>
+          <t>M. NIANG</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>EB FELIPE ANTÓN</t>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D107" t="n">
-        <v>11.22</v>
+        <v>8.379999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>11.22</v>
+        <v>8.379999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>673.1999999999999</v>
+        <v>502.8</v>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H107" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -8684,157 +8688,157 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
       <c r="N107" t="n">
-        <v>0.125</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O107" t="n">
-        <v>0.1536885245901639</v>
+        <v>0.6534672970843184</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
       </c>
       <c r="Q107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T107" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V107" t="n">
-        <v>38.44</v>
+        <v>45.24</v>
       </c>
       <c r="W107" t="n">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="X107" t="n">
-        <v>134.17</v>
+        <v>-22.86</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>M. OILLATAGUERRE</t>
+          <t>M. NIMAGA</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RECUCYM BAZU</t>
+          <t>EB FELIPE ANTÓN</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="E108" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="F108" t="n">
+        <v>673.1999999999999</v>
+      </c>
+      <c r="G108" t="n">
+        <v>3</v>
+      </c>
+      <c r="H108" t="n">
         <v>5</v>
       </c>
-      <c r="E108" t="n">
-        <v>5</v>
-      </c>
-      <c r="F108" t="n">
-        <v>300</v>
-      </c>
-      <c r="G108" t="n">
-        <v>2</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N108" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="O108" t="n">
-        <v>0.5</v>
+        <v>0.1536885245901639</v>
       </c>
       <c r="P108" t="n">
         <v>0</v>
       </c>
       <c r="Q108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T108" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U108" t="n">
         <v>1</v>
       </c>
       <c r="V108" t="n">
-        <v>21.8</v>
+        <v>38.44</v>
       </c>
       <c r="W108" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="X108" t="n">
-        <v>-134.45</v>
+        <v>134.17</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>M. RODRÍGUEZ RIVEROL</t>
+          <t>M. OILLATAGUERRE</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+          <t>RECUCYM BAZU</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>1.31</v>
+        <v>5</v>
       </c>
       <c r="E109" t="n">
-        <v>1.31</v>
+        <v>5</v>
       </c>
       <c r="F109" t="n">
-        <v>78.60000000000001</v>
+        <v>300</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -8845,58 +8849,62 @@
       <c r="M109" t="n">
         <v>0</v>
       </c>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.5</v>
+      </c>
       <c r="P109" t="n">
         <v>0</v>
       </c>
       <c r="Q109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T109" t="n">
         <v>0</v>
       </c>
       <c r="U109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V109" t="n">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="W109" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="X109" t="n">
-        <v>-200</v>
+        <v>-134.45</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>M. SANCHEZ SANCHEZ</t>
+          <t>M. RODRÍGUEZ RIVEROL</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ADC BOADILLA</t>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>2</v>
       </c>
       <c r="D110" t="n">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
       <c r="E110" t="n">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
       <c r="F110" t="n">
-        <v>64.2</v>
+        <v>78.60000000000001</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -8914,20 +8922,18 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
       </c>
       <c r="N110" t="inlineStr"/>
-      <c r="O110" t="n">
-        <v>0</v>
-      </c>
+      <c r="O110" t="inlineStr"/>
       <c r="P110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
@@ -8942,224 +8948,222 @@
         <v>0</v>
       </c>
       <c r="V110" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W110" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="X110" t="n">
-        <v>-326.41</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>M. SANZ CÁMARA</t>
+          <t>M. SANCHEZ SANCHEZ</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>GRUPO EGIDO PINTOBASKET</t>
+          <t>ADC BOADILLA</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>2</v>
       </c>
       <c r="D111" t="n">
-        <v>7.92</v>
+        <v>1.07</v>
       </c>
       <c r="E111" t="n">
-        <v>7.92</v>
+        <v>1.07</v>
       </c>
       <c r="F111" t="n">
-        <v>475.2</v>
+        <v>64.2</v>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
       </c>
-      <c r="N111" t="n">
-        <v>0.75</v>
-      </c>
+      <c r="N111" t="inlineStr"/>
       <c r="O111" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="P111" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U111" t="n">
         <v>0</v>
       </c>
       <c r="V111" t="n">
-        <v>23.36</v>
+        <v>100</v>
       </c>
       <c r="W111" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="X111" t="n">
-        <v>-48.23</v>
+        <v>-326.41</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>M. VILLAMANDOS TORRES</t>
+          <t>M. SANZ CÁMARA</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>UROS DE RIVAS</t>
+          <t>GRUPO EGIDO PINTOBASKET</t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>2</v>
       </c>
       <c r="D112" t="n">
-        <v>2.89</v>
+        <v>7.92</v>
       </c>
       <c r="E112" t="n">
-        <v>2.89</v>
+        <v>7.92</v>
       </c>
       <c r="F112" t="n">
-        <v>173.4</v>
+        <v>475.2</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
       </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>0.75</v>
+      </c>
       <c r="O112" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P112" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U112" t="n">
         <v>0</v>
       </c>
       <c r="V112" t="n">
-        <v>25.755</v>
+        <v>23.36</v>
       </c>
       <c r="W112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X112" t="n">
-        <v>-51.64000000000001</v>
+        <v>-48.23</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>N. LASUNCION MARIBLANCA</t>
+          <t>M. VILLAMANDOS TORRES</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>REAL CANOE N.C.</t>
+          <t>UROS DE RIVAS</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7799999999999999</v>
+        <v>2.89</v>
       </c>
       <c r="E113" t="n">
-        <v>0.7799999999999999</v>
+        <v>2.89</v>
       </c>
       <c r="F113" t="n">
-        <v>46.8</v>
+        <v>173.4</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
       </c>
-      <c r="N113" t="n">
-        <v>0</v>
-      </c>
+      <c r="N113" t="inlineStr"/>
       <c r="O113" t="n">
         <v>0</v>
       </c>
       <c r="P113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R113" t="n">
         <v>0</v>
@@ -9174,67 +9178,67 @@
         <v>0</v>
       </c>
       <c r="V113" t="n">
-        <v>50</v>
+        <v>25.755</v>
       </c>
       <c r="W113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X113" t="n">
-        <v>-77.27</v>
+        <v>-51.64000000000001</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>N. MAIGA</t>
+          <t>N. LASUNCION MARIBLANCA</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>C.B. TRES CANTOS</t>
+          <t>REAL CANOE N.C.</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>10.41</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>10.41</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>624.6</v>
+        <v>46.8</v>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
       </c>
       <c r="O114" t="n">
-        <v>0.3527630023640662</v>
+        <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q114" t="n">
         <v>0</v>
@@ -9243,225 +9247,229 @@
         <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V114" t="n">
-        <v>26.86</v>
+        <v>50</v>
       </c>
       <c r="W114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X114" t="n">
-        <v>22.51000000000001</v>
+        <v>-77.27</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>O. BALSELLS PLAZA</t>
+          <t>N. MAIGA</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CB ARIDANE</t>
+          <t>C.B. TRES CANTOS</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D115" t="n">
-        <v>8.49</v>
+        <v>12.49</v>
       </c>
       <c r="E115" t="n">
-        <v>8.49</v>
+        <v>12.49</v>
       </c>
       <c r="F115" t="n">
-        <v>509.4</v>
+        <v>749.4</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O115" t="n">
-        <v>0.2840909090909091</v>
+        <v>0.5685086682427108</v>
       </c>
       <c r="P115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
       </c>
       <c r="R115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V115" t="n">
-        <v>20.28</v>
+        <v>30.145</v>
       </c>
       <c r="W115" t="n">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="X115" t="n">
-        <v>-33.91999999999999</v>
+        <v>78.48</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>O. PEÑA LOPEZ</t>
+          <t>O. BALSELLS PLAZA</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+          <t>CB ARIDANE</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D116" t="n">
-        <v>2.42</v>
+        <v>8.49</v>
       </c>
       <c r="E116" t="n">
-        <v>2.42</v>
+        <v>8.49</v>
       </c>
       <c r="F116" t="n">
-        <v>145.2</v>
+        <v>509.4</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.2840909090909091</v>
+      </c>
       <c r="P116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V116" t="n">
-        <v>0</v>
+        <v>20.28</v>
       </c>
       <c r="W116" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="X116" t="n">
-        <v>-152.12</v>
+        <v>-33.91999999999999</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>P. ARGÜELLES ELORZA</t>
+          <t>O. PEÑA LOPEZ</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>EB FELIPE ANTÓN</t>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D117" t="n">
-        <v>20.12</v>
+        <v>4.5</v>
       </c>
       <c r="E117" t="n">
-        <v>20.12</v>
+        <v>4.5</v>
       </c>
       <c r="F117" t="n">
-        <v>1207.2</v>
+        <v>270</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
       </c>
       <c r="H117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O117" t="n">
-        <v>0.25</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="P117" t="n">
         <v>0</v>
@@ -9473,58 +9481,58 @@
         <v>1</v>
       </c>
       <c r="S117" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U117" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V117" t="n">
-        <v>10.1025</v>
+        <v>30.25</v>
       </c>
       <c r="W117" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="X117" t="n">
-        <v>-48.68000000000001</v>
+        <v>-208.09</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>P. BARCALA BELTRAN</t>
+          <t>P. ARGÜELLES ELORZA</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AUTOCARES RODRÍGUEZ</t>
+          <t>EB FELIPE ANTÓN</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D118" t="n">
-        <v>4.48</v>
+        <v>20.12</v>
       </c>
       <c r="E118" t="n">
-        <v>4.48</v>
+        <v>20.12</v>
       </c>
       <c r="F118" t="n">
-        <v>268.8</v>
+        <v>1207.2</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -9536,10 +9544,10 @@
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="O118" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="P118" t="n">
         <v>0</v>
@@ -9551,61 +9559,61 @@
         <v>1</v>
       </c>
       <c r="S118" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U118" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V118" t="n">
-        <v>12.02</v>
+        <v>10.1025</v>
       </c>
       <c r="W118" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="X118" t="n">
-        <v>-67.17</v>
+        <v>-48.68000000000001</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>P. DOMINGUEZ LORENZO</t>
+          <t>P. BARCALA BELTRAN</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ADC BOADILLA</t>
+          <t>AUTOCARES RODRÍGUEZ</t>
         </is>
       </c>
       <c r="C119" t="n">
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>4.37</v>
+        <v>4.48</v>
       </c>
       <c r="E119" t="n">
-        <v>4.37</v>
+        <v>4.48</v>
       </c>
       <c r="F119" t="n">
-        <v>262.2</v>
+        <v>268.8</v>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
@@ -9614,16 +9622,16 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O119" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R119" t="n">
         <v>1</v>
@@ -9638,139 +9646,143 @@
         <v>0</v>
       </c>
       <c r="V119" t="n">
-        <v>37.5</v>
+        <v>12.02</v>
       </c>
       <c r="W119" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="X119" t="n">
-        <v>-85.90000000000001</v>
+        <v>-67.17</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>P. ESTEBANEZ GONZALEZ</t>
+          <t>P. DOMINGUEZ LORENZO</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>UROS DE RIVAS</t>
+          <t>ADC BOADILLA</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>5.779999999999999</v>
+        <v>4.37</v>
       </c>
       <c r="E120" t="n">
-        <v>5.779999999999999</v>
+        <v>4.37</v>
       </c>
       <c r="F120" t="n">
-        <v>346.8</v>
+        <v>262.2</v>
       </c>
       <c r="G120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M120" t="n">
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="O120" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.75</v>
       </c>
       <c r="P120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U120" t="n">
         <v>0</v>
       </c>
       <c r="V120" t="n">
-        <v>36.8</v>
+        <v>37.5</v>
       </c>
       <c r="W120" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="X120" t="n">
-        <v>-92.78</v>
+        <v>-85.90000000000001</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>P. FUENTE DIEZ</t>
+          <t>P. ESTEBANEZ GONZALEZ</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>REAL CANOE N.C.</t>
+          <t>UROS DE RIVAS</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" t="n">
-        <v>0.13</v>
+        <v>5.779999999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>0.13</v>
+        <v>5.779999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>7.800000000000001</v>
+        <v>346.8</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121" t="n">
         <v>0</v>
       </c>
-      <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0.4098360655737705</v>
+      </c>
       <c r="P121" t="n">
         <v>0</v>
       </c>
@@ -9781,56 +9793,58 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U121" t="n">
         <v>0</v>
       </c>
-      <c r="V121" t="inlineStr"/>
+      <c r="V121" t="n">
+        <v>36.8</v>
+      </c>
       <c r="W121" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X121" t="n">
-        <v>0</v>
+        <v>-92.78</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>P. RODRIGUEZ RIVERO</t>
+          <t>P. FUENTE DIEZ</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+          <t>REAL CANOE N.C.</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>7.6</v>
+        <v>0.13</v>
       </c>
       <c r="E122" t="n">
-        <v>7.6</v>
+        <v>0.13</v>
       </c>
       <c r="F122" t="n">
-        <v>456</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -9841,14 +9855,10 @@
       <c r="M122" t="n">
         <v>0</v>
       </c>
-      <c r="N122" t="n">
-        <v>0</v>
-      </c>
-      <c r="O122" t="n">
-        <v>0</v>
-      </c>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
       <c r="P122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q122" t="n">
         <v>0</v>
@@ -9857,58 +9867,56 @@
         <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U122" t="n">
-        <v>1</v>
-      </c>
-      <c r="V122" t="n">
-        <v>9.295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V122" t="inlineStr"/>
       <c r="W122" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="X122" t="n">
-        <v>-104.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>P. ROSSI</t>
+          <t>P. RODRIGUEZ RIVERO</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>UROS DE RIVAS</t>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D123" t="n">
-        <v>7.24</v>
+        <v>9.68</v>
       </c>
       <c r="E123" t="n">
-        <v>7.24</v>
+        <v>9.68</v>
       </c>
       <c r="F123" t="n">
-        <v>434.4</v>
+        <v>580.8</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
@@ -9919,12 +9927,14 @@
       <c r="M123" t="n">
         <v>2</v>
       </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
       <c r="O123" t="n">
-        <v>1.136363636363636</v>
+        <v>0.2659574468085106</v>
       </c>
       <c r="P123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q123" t="n">
         <v>0</v>
@@ -9933,73 +9943,71 @@
         <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T123" t="n">
         <v>1</v>
       </c>
       <c r="U123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V123" t="n">
-        <v>11.7</v>
+        <v>19.36333333333333</v>
       </c>
       <c r="W123" t="n">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="X123" t="n">
-        <v>-99</v>
+        <v>-160.72</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>P. SÁNCHEZ GUTIERREZ</t>
+          <t>P. ROSSI</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>BALONCESTO TELDE</t>
+          <t>UROS DE RIVAS</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D124" t="n">
-        <v>7.59</v>
+        <v>7.24</v>
       </c>
       <c r="E124" t="n">
-        <v>7.59</v>
+        <v>7.24</v>
       </c>
       <c r="F124" t="n">
-        <v>455.4</v>
+        <v>434.4</v>
       </c>
       <c r="G124" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>2</v>
       </c>
       <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="n">
-        <v>1.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
       <c r="O124" t="n">
-        <v>1.281914893617021</v>
+        <v>1.136363636363636</v>
       </c>
       <c r="P124" t="n">
         <v>0</v>
@@ -10011,61 +10019,61 @@
         <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V124" t="n">
-        <v>12.36666666666667</v>
+        <v>11.7</v>
       </c>
       <c r="W124" t="n">
-        <v>14</v>
+        <v>-6</v>
       </c>
       <c r="X124" t="n">
-        <v>142.8</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>R. LARDIES GUILLEN</t>
+          <t>P. SÁNCHEZ GUTIERREZ</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>C.B. TRES CANTOS</t>
+          <t>BALONCESTO TELDE</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D125" t="n">
-        <v>5.5</v>
+        <v>7.59</v>
       </c>
       <c r="E125" t="n">
-        <v>5.5</v>
+        <v>7.59</v>
       </c>
       <c r="F125" t="n">
-        <v>330</v>
+        <v>455.4</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L125" t="n">
         <v>2</v>
@@ -10073,18 +10081,20 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O125" t="n">
-        <v>0.5681818181818182</v>
+        <v>1.281914893617021</v>
       </c>
       <c r="P125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125" t="n">
         <v>0</v>
       </c>
       <c r="R125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S125" t="n">
         <v>0</v>
@@ -10096,40 +10106,40 @@
         <v>0</v>
       </c>
       <c r="V125" t="n">
-        <v>4.823333333333333</v>
+        <v>12.36666666666667</v>
       </c>
       <c r="W125" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="X125" t="n">
-        <v>279.38</v>
+        <v>142.8</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>R. LOPEZ RIVERA</t>
+          <t>R. LARDIES GUILLEN</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ADC BOADILLA</t>
+          <t>C.B. TRES CANTOS</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D126" t="n">
-        <v>0.64</v>
+        <v>5.5</v>
       </c>
       <c r="E126" t="n">
-        <v>0.64</v>
+        <v>5.5</v>
       </c>
       <c r="F126" t="n">
-        <v>38.4</v>
+        <v>330</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -10144,21 +10154,23 @@
         <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr"/>
+      <c r="O126" t="n">
+        <v>0.5681818181818182</v>
+      </c>
       <c r="P126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q126" t="n">
         <v>0</v>
       </c>
       <c r="R126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S126" t="n">
         <v>0</v>
@@ -10170,121 +10182,117 @@
         <v>0</v>
       </c>
       <c r="V126" t="n">
-        <v>0</v>
+        <v>4.823333333333333</v>
       </c>
       <c r="W126" t="n">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="X126" t="n">
-        <v>-133.33</v>
+        <v>279.38</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>S. GACIC</t>
+          <t>R. LOPEZ RIVERA</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BALONCESTO TALAVERA</t>
+          <t>ADC BOADILLA</t>
         </is>
       </c>
       <c r="C127" t="n">
         <v>2</v>
       </c>
       <c r="D127" t="n">
-        <v>9.06</v>
+        <v>0.64</v>
       </c>
       <c r="E127" t="n">
-        <v>9.06</v>
+        <v>0.64</v>
       </c>
       <c r="F127" t="n">
-        <v>543.6</v>
+        <v>38.4</v>
       </c>
       <c r="G127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="O127" t="n">
-        <v>0.4129568884723525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
       <c r="P127" t="n">
         <v>0</v>
       </c>
       <c r="Q127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R127" t="n">
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V127" t="n">
-        <v>39.415</v>
+        <v>0</v>
       </c>
       <c r="W127" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="X127" t="n">
-        <v>82.61</v>
+        <v>-133.33</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>S. GUEYE</t>
+          <t>S. GACIC</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CB ARIDANE</t>
+          <t>BALONCESTO TALAVERA</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128" t="n">
-        <v>4.48</v>
+        <v>9.06</v>
       </c>
       <c r="E128" t="n">
-        <v>4.48</v>
+        <v>9.06</v>
       </c>
       <c r="F128" t="n">
-        <v>268.8</v>
+        <v>543.6</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -10293,157 +10301,157 @@
         <v>2</v>
       </c>
       <c r="K128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N128" t="n">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O128" t="n">
-        <v>0.75</v>
+        <v>0.4129568884723525</v>
       </c>
       <c r="P128" t="n">
         <v>0</v>
       </c>
       <c r="Q128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R128" t="n">
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T128" t="n">
         <v>1</v>
       </c>
       <c r="U128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V128" t="n">
-        <v>26.18</v>
+        <v>39.415</v>
       </c>
       <c r="W128" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="X128" t="n">
-        <v>-17.33</v>
+        <v>82.61</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>S. MANERO GUZMAN</t>
+          <t>S. GUEYE</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>EB FELIPE ANTÓN</t>
+          <t>CB ARIDANE</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>21.08</v>
+        <v>4.48</v>
       </c>
       <c r="E129" t="n">
-        <v>21.08</v>
+        <v>4.48</v>
       </c>
       <c r="F129" t="n">
-        <v>1264.8</v>
+        <v>268.8</v>
       </c>
       <c r="G129" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H129" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="O129" t="n">
-        <v>0.3981481481481481</v>
+        <v>0.75</v>
       </c>
       <c r="P129" t="n">
         <v>0</v>
       </c>
       <c r="Q129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R129" t="n">
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T129" t="n">
         <v>1</v>
       </c>
       <c r="U129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V129" t="n">
-        <v>12.53</v>
+        <v>26.18</v>
       </c>
       <c r="W129" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="X129" t="n">
-        <v>786.2900000000001</v>
+        <v>-17.33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>S. RODRIGUEZ GREGORIO</t>
+          <t>S. MANERO GUZMAN</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>GRUPO EGIDO PINTOBASKET</t>
+          <t>EB FELIPE ANTÓN</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D130" t="n">
-        <v>7.200000000000001</v>
+        <v>21.08</v>
       </c>
       <c r="E130" t="n">
-        <v>7.200000000000001</v>
+        <v>21.08</v>
       </c>
       <c r="F130" t="n">
-        <v>432</v>
+        <v>1264.8</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -10452,79 +10460,79 @@
         <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N130" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>0.3981481481481481</v>
       </c>
       <c r="P130" t="n">
         <v>0</v>
       </c>
       <c r="Q130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R130" t="n">
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T130" t="n">
         <v>1</v>
       </c>
       <c r="U130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V130" t="n">
-        <v>6.72</v>
+        <v>12.53</v>
       </c>
       <c r="W130" t="n">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="X130" t="n">
-        <v>-93.14</v>
+        <v>786.2900000000001</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>T. VERDERA BENASSAR</t>
+          <t>S. RODRIGUEZ GREGORIO</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ZENTRO BASKET MADRID</t>
+          <t>GRUPO EGIDO PINTOBASKET</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D131" t="n">
-        <v>4.64</v>
+        <v>7.200000000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>4.64</v>
+        <v>7.200000000000001</v>
       </c>
       <c r="F131" t="n">
-        <v>278.4</v>
+        <v>432</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
@@ -10551,52 +10559,52 @@
         <v>0</v>
       </c>
       <c r="S131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V131" t="n">
-        <v>42.73</v>
+        <v>6.72</v>
       </c>
       <c r="W131" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="X131" t="n">
-        <v>3.62</v>
+        <v>-93.14</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>V. ALONSO PASCUAL</t>
+          <t>T. VERDERA BENASSAR</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>BALONCESTO TALAVERA</t>
+          <t>ZENTRO BASKET MADRID</t>
         </is>
       </c>
       <c r="C132" t="n">
         <v>2</v>
       </c>
       <c r="D132" t="n">
-        <v>4.1</v>
+        <v>4.64</v>
       </c>
       <c r="E132" t="n">
-        <v>4.1</v>
+        <v>4.64</v>
       </c>
       <c r="F132" t="n">
-        <v>246</v>
+        <v>278.4</v>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10608,16 +10616,16 @@
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N132" t="n">
         <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>0.2659574468085106</v>
+        <v>0</v>
       </c>
       <c r="P132" t="n">
         <v>0</v>
@@ -10629,73 +10637,73 @@
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T132" t="n">
         <v>0</v>
       </c>
       <c r="U132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V132" t="n">
-        <v>51.65</v>
+        <v>42.73</v>
       </c>
       <c r="W132" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X132" t="n">
-        <v>-82.3</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>V. FERNANDEZ MORAN</t>
+          <t>V. ALONSO PASCUAL</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>RECUCYM BAZU</t>
+          <t>BALONCESTO TALAVERA</t>
         </is>
       </c>
       <c r="C133" t="n">
+        <v>2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>246</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
         <v>4</v>
       </c>
-      <c r="D133" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="E133" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="F133" t="n">
-        <v>718.2</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0</v>
-      </c>
-      <c r="H133" t="n">
-        <v>5</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>3</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>2</v>
-      </c>
       <c r="M133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N133" t="n">
         <v>0</v>
       </c>
       <c r="O133" t="n">
-        <v>0</v>
+        <v>0.2659574468085106</v>
       </c>
       <c r="P133" t="n">
         <v>0</v>
@@ -10704,98 +10712,176 @@
         <v>0</v>
       </c>
       <c r="R133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U133" t="n">
         <v>0</v>
       </c>
       <c r="V133" t="n">
-        <v>29.1275</v>
+        <v>51.65</v>
       </c>
       <c r="W133" t="n">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="X133" t="n">
-        <v>-353.21</v>
+        <v>-82.3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
+          <t>V. FERNANDEZ MORAN</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>4</v>
+      </c>
+      <c r="D134" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="E134" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="F134" t="n">
+        <v>718.2</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>3</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" t="n">
+        <v>1</v>
+      </c>
+      <c r="S134" t="n">
+        <v>1</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1</v>
+      </c>
+      <c r="U134" t="n">
+        <v>0</v>
+      </c>
+      <c r="V134" t="n">
+        <v>29.1275</v>
+      </c>
+      <c r="W134" t="n">
+        <v>-12</v>
+      </c>
+      <c r="X134" t="n">
+        <v>-353.21</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
           <t>Y. RODRÍGUEZ MACHÍN</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
         </is>
       </c>
-      <c r="C134" t="n">
-        <v>1</v>
-      </c>
-      <c r="D134" t="n">
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
         <v>1.38</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E135" t="n">
         <v>1.38</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F135" t="n">
         <v>82.8</v>
       </c>
-      <c r="G134" t="n">
-        <v>0</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0</v>
-      </c>
-      <c r="L134" t="n">
-        <v>0</v>
-      </c>
-      <c r="M134" t="n">
-        <v>0</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q134" t="n">
-        <v>0</v>
-      </c>
-      <c r="R134" t="n">
-        <v>0</v>
-      </c>
-      <c r="S134" t="n">
-        <v>0</v>
-      </c>
-      <c r="T134" t="n">
-        <v>0</v>
-      </c>
-      <c r="U134" t="n">
-        <v>0</v>
-      </c>
-      <c r="V134" t="n">
-        <v>0</v>
-      </c>
-      <c r="W134" t="n">
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U135" t="n">
+        <v>0</v>
+      </c>
+      <c r="V135" t="n">
+        <v>0</v>
+      </c>
+      <c r="W135" t="n">
         <v>-6</v>
       </c>
-      <c r="X134" t="n">
+      <c r="X135" t="n">
         <v>-200</v>
       </c>
     </row>
